--- a/observations/orbit_plans/mtp102/nomad_mtp102_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp102/nomad_mtp102_plan_generic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F35CE70-7DD3-4DFD-AF92-65C064AB6371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8E5CB1-1C94-4A34-86DB-01A7E0F689F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="444">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1361,7 +1361,10 @@
     <t xml:space="preserve">&amp;LST=11.8hrs; &amp;Angle=3; </t>
   </si>
   <si>
-    <t>6SUBD CO2 H2O #14</t>
+    <t>6SUBD CO2 #23</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #12</t>
   </si>
 </sst>
 </file>
@@ -1717,16 +1720,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="K273" sqref="K273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>14</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1854,7 +1858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1896,7 +1900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1913,7 +1917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1955,7 +1959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1969,7 +1973,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1983,7 +1987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1997,7 +2001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2025,7 +2029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>14</v>
       </c>
@@ -2053,7 +2057,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2067,7 +2071,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2095,7 +2099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2112,7 +2116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>14</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>14</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2199,7 +2203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
@@ -2213,7 +2217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2227,7 +2231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2241,7 +2245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2258,7 +2262,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>14</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>14</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2322,7 +2326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2336,7 +2340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>14</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>14</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -2423,7 +2427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2440,7 +2444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>14</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14</v>
       </c>
@@ -2482,7 +2486,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>14</v>
       </c>
@@ -2496,7 +2500,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>14</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>14</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14</v>
       </c>
@@ -2566,7 +2570,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>14</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>14</v>
       </c>
@@ -2594,7 +2598,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>14</v>
       </c>
@@ -2608,7 +2612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>14</v>
       </c>
@@ -2622,7 +2626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>14</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2667,7 +2671,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>14</v>
       </c>
@@ -2681,7 +2685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>14</v>
       </c>
@@ -2695,7 +2699,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>14</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>14</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>7</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>14</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>14</v>
       </c>
@@ -2782,7 +2786,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>14</v>
       </c>
@@ -2813,7 +2817,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14</v>
       </c>
@@ -2827,7 +2831,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -2841,7 +2845,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>14</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14</v>
       </c>
@@ -2914,7 +2918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>14</v>
       </c>
@@ -2928,7 +2932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>14</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>14</v>
       </c>
@@ -2987,7 +2991,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3001,7 +3005,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>14</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>14</v>
       </c>
@@ -3057,7 +3061,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>14</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>14</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>14</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>7</v>
       </c>
@@ -3116,7 +3120,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>14</v>
       </c>
@@ -3130,7 +3134,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>14</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>14</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>14</v>
       </c>
@@ -3172,7 +3176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3</v>
       </c>
@@ -3189,7 +3193,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>14</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>14</v>
       </c>
@@ -3231,7 +3235,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>14</v>
       </c>
@@ -3245,7 +3249,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14</v>
       </c>
@@ -3259,7 +3263,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>14</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>14</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>14</v>
       </c>
@@ -3315,7 +3319,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>3</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>14</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>14</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>14</v>
       </c>
@@ -3374,7 +3378,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>14</v>
       </c>
@@ -3388,7 +3392,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>3</v>
       </c>
@@ -3405,7 +3409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>14</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>14</v>
       </c>
@@ -3433,7 +3437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>14</v>
       </c>
@@ -3447,7 +3451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>3</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>14</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>14</v>
       </c>
@@ -3492,7 +3496,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14</v>
       </c>
@@ -3503,7 +3507,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>3</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3552,7 +3556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>14</v>
       </c>
@@ -3566,7 +3570,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3598,7 +3602,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>14</v>
       </c>
@@ -3612,7 +3616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>14</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3646,7 +3650,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3669,7 +3673,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>14</v>
       </c>
@@ -3683,7 +3687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3715,7 +3719,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>14</v>
       </c>
@@ -3729,7 +3733,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3761,7 +3765,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>14</v>
       </c>
@@ -3775,7 +3779,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>47</v>
       </c>
@@ -3789,7 +3793,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3821,7 +3825,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -3867,7 +3871,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -3933,7 +3937,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>14</v>
       </c>
@@ -3947,7 +3951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4005,7 +4009,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4051,7 +4055,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>14</v>
       </c>
@@ -4065,7 +4069,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4111,7 +4115,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>14</v>
       </c>
@@ -4157,7 +4161,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>14</v>
       </c>
@@ -4200,7 +4204,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>47</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4281,7 +4285,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>14</v>
       </c>
@@ -4295,7 +4299,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4327,7 +4331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>14</v>
       </c>
@@ -4341,7 +4345,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>28</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>14</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4401,7 +4405,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>14</v>
       </c>
@@ -4415,7 +4419,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4447,7 +4451,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>14</v>
       </c>
@@ -4493,7 +4497,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>14</v>
       </c>
@@ -4507,7 +4511,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>14</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4585,7 +4589,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>14</v>
       </c>
@@ -4599,7 +4603,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4631,7 +4635,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>14</v>
       </c>
@@ -4645,7 +4649,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4677,7 +4681,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>14</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4723,7 +4727,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>14</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4769,7 +4773,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>14</v>
       </c>
@@ -4783,7 +4787,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4815,7 +4819,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>14</v>
       </c>
@@ -4829,7 +4833,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4852,7 +4856,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>14</v>
       </c>
@@ -4866,7 +4870,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4892,7 +4896,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>14</v>
       </c>
@@ -4906,7 +4910,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4938,7 +4942,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>14</v>
       </c>
@@ -4952,7 +4956,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -4966,10 +4970,10 @@
         <v>3</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>6</v>
@@ -4984,7 +4988,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>14</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>14</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -5061,7 +5065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5084,7 +5088,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>14</v>
       </c>
@@ -5098,7 +5102,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>14</v>
       </c>
@@ -5112,7 +5116,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>14</v>
       </c>
@@ -5126,7 +5130,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5149,7 +5153,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>14</v>
       </c>
@@ -5163,7 +5167,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5186,7 +5190,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>14</v>
       </c>
@@ -5200,15 +5204,15 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>6</v>
@@ -5223,7 +5227,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>14</v>
       </c>
@@ -5260,7 +5264,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5283,7 +5287,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>14</v>
       </c>
@@ -5297,7 +5301,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>14</v>
       </c>
@@ -5308,7 +5312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>14</v>
       </c>
@@ -5319,7 +5323,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>14</v>
       </c>
@@ -5333,7 +5337,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5356,7 +5360,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5379,7 +5383,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>14</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>14</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>14</v>
       </c>
@@ -5418,15 +5422,15 @@
         <v>331</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>6</v>
@@ -5441,7 +5445,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>14</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5501,7 +5505,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>14</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>14</v>
       </c>
@@ -5529,7 +5533,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5552,7 +5556,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>3</v>
       </c>
@@ -5569,7 +5573,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>14</v>
       </c>
@@ -5583,7 +5587,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5606,7 +5610,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>14</v>
       </c>
@@ -5617,7 +5621,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>14</v>
       </c>
@@ -5631,7 +5635,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>14</v>
       </c>
@@ -5645,7 +5649,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -5668,15 +5672,15 @@
         <v>352</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>6</v>
@@ -5691,7 +5695,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>3</v>
       </c>
@@ -5708,7 +5712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5731,7 +5735,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>14</v>
       </c>
@@ -5745,7 +5749,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>14</v>
       </c>
@@ -5759,7 +5763,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5782,7 +5786,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>3</v>
       </c>
@@ -5799,7 +5803,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1</v>
       </c>
@@ -5822,7 +5826,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>14</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5885,7 +5889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>14</v>
       </c>
@@ -5899,7 +5903,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1</v>
       </c>
@@ -5922,15 +5926,15 @@
         <v>371</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>6</v>
@@ -5945,7 +5949,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>14</v>
       </c>
@@ -5959,7 +5963,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1</v>
       </c>
@@ -5982,7 +5986,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>14</v>
       </c>
@@ -5996,7 +6000,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>14</v>
       </c>
@@ -6010,7 +6014,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1</v>
       </c>
@@ -6033,7 +6037,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>14</v>
       </c>
@@ -6070,7 +6074,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>47</v>
       </c>
@@ -6084,7 +6088,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>14</v>
       </c>
@@ -6098,7 +6102,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>14</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1</v>
       </c>
@@ -6161,7 +6165,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>14</v>
       </c>
@@ -6175,7 +6179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1</v>
       </c>
@@ -6198,15 +6202,15 @@
         <v>392</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>6</v>
@@ -6221,7 +6225,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>3</v>
       </c>
@@ -6238,7 +6242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>14</v>
       </c>
@@ -6275,15 +6279,15 @@
         <v>397</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>6</v>
@@ -6298,7 +6302,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>47</v>
       </c>
@@ -6312,7 +6316,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>14</v>
       </c>
@@ -6326,7 +6330,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>14</v>
       </c>
@@ -6340,7 +6344,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1</v>
       </c>
@@ -6366,7 +6370,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>14</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>47</v>
       </c>
@@ -6417,7 +6421,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1</v>
       </c>
@@ -6440,7 +6444,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>14</v>
       </c>
@@ -6454,7 +6458,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1</v>
       </c>
@@ -6480,15 +6484,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>6</v>
@@ -6503,7 +6507,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>14</v>
       </c>
@@ -6517,7 +6521,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -6540,7 +6544,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>14</v>
       </c>
@@ -6554,15 +6558,15 @@
         <v>418</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>6</v>
@@ -6577,7 +6581,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1</v>
       </c>
@@ -6603,7 +6607,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>14</v>
       </c>
@@ -6617,7 +6621,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>14</v>
       </c>
@@ -6654,7 +6658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1</v>
       </c>
@@ -6677,7 +6681,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>14</v>
       </c>
@@ -6691,7 +6695,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1</v>
       </c>
@@ -6714,7 +6718,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
@@ -6737,7 +6741,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>14</v>
       </c>
@@ -6751,7 +6755,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1</v>
       </c>
@@ -6774,7 +6778,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>14</v>
       </c>
@@ -6788,7 +6792,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1</v>
       </c>
@@ -6814,7 +6818,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>14</v>
       </c>
@@ -6828,7 +6832,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1</v>
       </c>
@@ -6851,7 +6855,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1</v>
       </c>
